--- a/results/gru/corona/confidence/0.1/percents/scores-10.xlsx
+++ b/results/gru/corona/confidence/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="115">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,12 +43,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -58,39 +58,36 @@
     <t>starvation</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>terrorist</t>
+  </si>
+  <si>
     <t>suicide</t>
   </si>
   <si>
-    <t>pollution</t>
-  </si>
-  <si>
     <t>wr</t>
   </si>
   <si>
     <t>havoc</t>
   </si>
   <si>
-    <t>terrorist</t>
-  </si>
-  <si>
-    <t>apocalyptic</t>
-  </si>
-  <si>
     <t>covered</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>threaten</t>
   </si>
   <si>
@@ -100,30 +97,36 @@
     <t>devastating</t>
   </si>
   <si>
+    <t>slap</t>
+  </si>
+  <si>
+    <t>alleged</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
     <t>unemployment</t>
   </si>
   <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>stolen</t>
-  </si>
-  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>bitch</t>
   </si>
   <si>
+    <t>terror</t>
+  </si>
+  <si>
     <t>losing</t>
   </si>
   <si>
@@ -136,7 +139,7 @@
     <t>ass</t>
   </si>
   <si>
-    <t>fake</t>
+    <t>struggling</t>
   </si>
   <si>
     <t>bread</t>
@@ -145,16 +148,16 @@
     <t>disruption</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>beginning</t>
   </si>
   <si>
     <t>kill</t>
@@ -163,28 +166,28 @@
     <t>warning</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>roll</t>
   </si>
   <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>milk</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>police</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>never</t>
@@ -193,19 +196,16 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>taking</t>
+  </si>
+  <si>
     <t>re</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>how</t>
+    <t>going</t>
   </si>
   <si>
     <t>we</t>
@@ -214,15 +214,9 @@
     <t>all</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>'</t>
   </si>
   <si>
@@ -235,7 +229,7 @@
     <t>:</t>
   </si>
   <si>
-    <t>is</t>
+    <t>,</t>
   </si>
   <si>
     <t>in</t>
@@ -256,15 +250,15 @@
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -274,19 +268,70 @@
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>crisp</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>sharing</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>well</t>
@@ -295,64 +340,7 @@
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>generous</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -728,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS72"/>
+  <dimension ref="A1:BS70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,25 +727,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC1" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BL1" t="s">
         <v>114</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -959,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02866266239502074</v>
+        <v>0.03082854360763868</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -977,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>0.06463300915670307</v>
+        <v>0.00110112055135887</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1001,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>0.01814092043973229</v>
+        <v>0.01867473312868894</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1028,16 +1016,16 @@
         <v>145</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC3">
-        <v>0.04072766118777545</v>
+        <v>0.08164917947654998</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1049,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL3">
-        <v>0.01655559512617212</v>
+        <v>0.01703783941445716</v>
       </c>
       <c r="AM3">
         <v>9</v>
@@ -1076,16 +1064,16 @@
         <v>145</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AU3">
-        <v>0.03644025221846105</v>
+        <v>0.06128394272835113</v>
       </c>
       <c r="AV3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1097,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD3">
-        <v>0.01610549920207314</v>
+        <v>0.01657195747910941</v>
       </c>
       <c r="BE3">
         <v>4</v>
@@ -1124,16 +1112,16 @@
         <v>12</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BM3">
-        <v>0.03464763282050327</v>
+        <v>0.05293766266453716</v>
       </c>
       <c r="BN3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1145,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1153,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.02799432096796153</v>
+        <v>0.02955828594535076</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1171,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4">
-        <v>0.05925392508623325</v>
+        <v>0.001094249588049814</v>
       </c>
       <c r="L4">
         <v>7</v>
@@ -1198,16 +1186,16 @@
         <v>44</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>0.01847325800587301</v>
+      </c>
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="T4">
-        <v>0.01744080797887625</v>
-      </c>
-      <c r="U4">
-        <v>9</v>
-      </c>
       <c r="V4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1219,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC4">
-        <v>0.03959844221900494</v>
+        <v>0.07969139761566826</v>
       </c>
       <c r="AD4">
         <v>7</v>
@@ -1249,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="AL4">
-        <v>0.01631785541914628</v>
+        <v>0.01679222728618714</v>
       </c>
       <c r="AM4">
         <v>4</v>
@@ -1270,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AU4">
-        <v>0.03607324385541297</v>
+        <v>0.05929203525177438</v>
       </c>
       <c r="AV4">
         <v>7</v>
@@ -1294,16 +1282,16 @@
         <v>44</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.01600394633110747</v>
+        <v>0.01637701540936088</v>
       </c>
       <c r="BE4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BF4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1315,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BM4">
-        <v>0.03459931425983383</v>
+        <v>0.05093176949511222</v>
       </c>
       <c r="BN4">
         <v>7</v>
@@ -1347,38 +1335,38 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0250248243289705</v>
+        <v>0.02384626431952281</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>129</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <v>0.001080507661431702</v>
+      </c>
+      <c r="L5">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>128</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5">
-        <v>0.05358388647919721</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -1389,44 +1377,44 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T5">
-        <v>0.01730122066115321</v>
+        <v>0.01733784648261455</v>
       </c>
       <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5">
+        <v>0.07577583389390485</v>
+      </c>
+      <c r="AD5">
         <v>7</v>
       </c>
-      <c r="V5">
+      <c r="AE5">
         <v>7</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>128</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC5">
-        <v>0.03811524833604796</v>
-      </c>
-      <c r="AD5">
-        <v>6</v>
-      </c>
-      <c r="AE5">
-        <v>6</v>
-      </c>
       <c r="AF5">
         <v>0</v>
       </c>
@@ -1437,44 +1425,44 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL5">
-        <v>0.01613749468701994</v>
+        <v>0.01661501468406848</v>
       </c>
       <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>223</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU5">
+        <v>0.05530822029862086</v>
+      </c>
+      <c r="AV5">
         <v>7</v>
       </c>
-      <c r="AN5">
+      <c r="AW5">
         <v>7</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>128</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU5">
-        <v>0.03534095791349395</v>
-      </c>
-      <c r="AV5">
-        <v>6</v>
-      </c>
-      <c r="AW5">
-        <v>6</v>
-      </c>
       <c r="AX5">
         <v>0</v>
       </c>
@@ -1485,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD5">
-        <v>0.01591537818546564</v>
+        <v>0.01625222829335845</v>
       </c>
       <c r="BE5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BF5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1509,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BM5">
-        <v>0.03418099233460165</v>
+        <v>0.04729915196554101</v>
       </c>
       <c r="BN5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1533,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1541,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02033369886469082</v>
+        <v>0.02096561735770108</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1562,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>0.04804609993423672</v>
+        <v>0.0008292758951736806</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1586,16 +1574,16 @@
         <v>19</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T6">
-        <v>0.01684369855920194</v>
+        <v>0.01729064031537183</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1607,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC6">
-        <v>0.03679295214135755</v>
+        <v>0.06415341809930465</v>
       </c>
       <c r="AD6">
         <v>5</v>
@@ -1634,16 +1622,16 @@
         <v>19</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.01613111214406893</v>
+        <v>0.01630467002551999</v>
       </c>
       <c r="AM6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1655,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AU6">
-        <v>0.03477470723469808</v>
+        <v>0.05219859445558704</v>
       </c>
       <c r="AV6">
         <v>5</v>
@@ -1685,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="BD6">
-        <v>0.01581605411572089</v>
+        <v>0.01616016671612457</v>
       </c>
       <c r="BE6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1703,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BM6">
-        <v>0.03393085375689799</v>
+        <v>0.04691998315626232</v>
       </c>
       <c r="BN6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BO6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1727,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1735,13 +1723,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01853592987682581</v>
+        <v>0.01715178872446115</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1753,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7">
-        <v>0.04137094565542641</v>
+        <v>0.000671491411097726</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1783,13 +1771,13 @@
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.01644600412753442</v>
+        <v>0.01640903684504606</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1801,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC7">
-        <v>0.03408693582757458</v>
+        <v>0.04917623148969474</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -1828,16 +1816,16 @@
         <v>47</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.01594373381027947</v>
+        <v>0.01629732645937244</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1849,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AU7">
-        <v>0.03278055329304304</v>
+        <v>0.04131803289373347</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1879,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="BD7">
-        <v>0.01570555399640348</v>
+        <v>0.01611413592750762</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1897,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BM7">
-        <v>0.0322343383904491</v>
+        <v>0.03809750925878172</v>
       </c>
       <c r="BN7">
         <v>4</v>
@@ -1929,38 +1917,38 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01835826949748096</v>
+        <v>0.0170645754841417</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>0.0005274488536398834</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8">
-        <v>0.04123869359335086</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1971,44 +1959,44 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.01625989828350941</v>
+        <v>0.01631782041468987</v>
       </c>
       <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8">
+        <v>0.03811460860184824</v>
+      </c>
+      <c r="AD8">
         <v>3</v>
       </c>
-      <c r="V8">
+      <c r="AE8">
         <v>3</v>
       </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC8">
-        <v>0.03392603813930801</v>
-      </c>
-      <c r="AD8">
-        <v>4</v>
-      </c>
-      <c r="AE8">
-        <v>4</v>
-      </c>
       <c r="AF8">
         <v>0</v>
       </c>
@@ -2019,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.01585069568001174</v>
+        <v>0.01620550794652367</v>
       </c>
       <c r="AM8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -2043,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AU8">
-        <v>0.03261451802991988</v>
+        <v>0.03621649957412289</v>
       </c>
       <c r="AV8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -2067,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BD8">
-        <v>0.01566753620177559</v>
+        <v>0.0160647452273128</v>
       </c>
       <c r="BE8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -2091,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BM8">
-        <v>0.03206615504292058</v>
+        <v>0.03647078489863547</v>
       </c>
       <c r="BN8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2115,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2123,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0165520404915519</v>
+        <v>0.01702096886398197</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2141,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>0.03708597884417825</v>
+        <v>0.0005261995875836913</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2165,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.01585334166879308</v>
+        <v>0.01627221219951178</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2189,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC9">
-        <v>0.03202451026685792</v>
+        <v>0.03775864826350611</v>
       </c>
       <c r="AD9">
         <v>3</v>
@@ -2219,7 +2207,7 @@
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.01574806775740263</v>
+        <v>0.01615959869009928</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2237,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AU9">
-        <v>0.03191370835644836</v>
+        <v>0.03442128628503344</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2261,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD9">
-        <v>0.01566081775464477</v>
+        <v>0.0160647452273128</v>
       </c>
       <c r="BE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2285,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BM9">
-        <v>0.03200315459108739</v>
+        <v>0.03438094524711011</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2309,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2317,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01650974040123169</v>
+        <v>0.01696864091979029</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2335,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>0.03522479962491835</v>
+        <v>0.0004133886815306483</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2359,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.01580903075354903</v>
+        <v>0.01621748234129806</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2383,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC10">
-        <v>0.0316997797394203</v>
+        <v>0.03559603383421282</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2407,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.01570345386840514</v>
+        <v>0.01610450758239002</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2431,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AU10">
-        <v>0.03184729425119909</v>
+        <v>0.03405912128929221</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2455,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD10">
-        <v>0.01561294837378955</v>
+        <v>0.0160647452273128</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2482,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BM10">
-        <v>0.03193588125207598</v>
+        <v>0.03438094524711011</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2503,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2511,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01594291919094097</v>
+        <v>0.0164366401538416</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2532,10 +2520,10 @@
         <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>0.03050697586482634</v>
+        <v>0.0004052684521654005</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2553,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T11">
-        <v>0.01546450942017438</v>
+        <v>0.01591726709715496</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -2580,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC11">
-        <v>0.03163542066411367</v>
+        <v>0.03328229163498898</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2601,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.01557024726012478</v>
+        <v>0.01602233049211046</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2628,16 +2616,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU11">
-        <v>0.03145054040388064</v>
+        <v>0.03386242710180491</v>
       </c>
       <c r="AV11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2649,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD11">
-        <v>0.01561294837378955</v>
+        <v>0.0160647452273128</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2676,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BM11">
-        <v>0.03155119599634951</v>
+        <v>0.03438094524711011</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2705,7 +2693,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01476273152175092</v>
+        <v>0.01521871043574535</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2726,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>0.03045407503999612</v>
+        <v>0.0004040191861092084</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2747,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T12">
-        <v>0.01546450942017438</v>
+        <v>0.01591726709715496</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2774,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AC12">
-        <v>0.03102400944870068</v>
+        <v>0.03292633129664686</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2795,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.01557024726012478</v>
+        <v>0.01602233049211046</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2822,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AU12">
-        <v>0.03121636025133109</v>
+        <v>0.03350026210606368</v>
       </c>
       <c r="AV12">
         <v>2</v>
@@ -2843,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BD12">
-        <v>0.01561294837378955</v>
+        <v>0.0160588989811673</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2867,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="BM12">
-        <v>0.03155119599634951</v>
+        <v>0.03410018388022417</v>
       </c>
       <c r="BN12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -2891,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2899,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01476273152175092</v>
+        <v>0.01521871043574535</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2920,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>0.02995151720410899</v>
+        <v>0.0004015206539968245</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2947,7 +2935,7 @@
         <v>20</v>
       </c>
       <c r="T13">
-        <v>0.01546450942017438</v>
+        <v>0.01591726709715496</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2968,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC13">
-        <v>0.03079875268512747</v>
+        <v>0.0322144106199626</v>
       </c>
       <c r="AD13">
         <v>2</v>
@@ -2989,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.01557024726012478</v>
+        <v>0.01602233049211046</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -3016,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AU13">
-        <v>0.0311482153619047</v>
+        <v>0.03277593211458122</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3037,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13">
-        <v>0.01561294837378955</v>
+        <v>0.01605553906958942</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -3061,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BM13">
-        <v>0.03148392265733811</v>
+        <v>0.03383388347363057</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -3085,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3093,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01476273152175092</v>
+        <v>0.01521871043574535</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3114,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>0.02976636431720321</v>
+        <v>0.000340931250271513</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -3135,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T14">
-        <v>0.01546450942017438</v>
+        <v>0.01591726709715496</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3162,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC14">
-        <v>0.03018440631881</v>
+        <v>0.02756007382227441</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3189,7 +3177,7 @@
         <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.01557024726012478</v>
+        <v>0.01602233049211046</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3210,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AU14">
-        <v>0.0311482153619047</v>
+        <v>0.0323981554292233</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3234,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD14">
-        <v>0.01561294837378955</v>
+        <v>0.01605553906958942</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3255,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BM14">
-        <v>0.0314166493183267</v>
+        <v>0.03383388347363057</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3279,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3287,7 +3275,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01476273152175092</v>
+        <v>0.01521871043574535</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3308,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>0.02836449245920227</v>
+        <v>0.0002884620759114495</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3329,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.01546450942017438</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3353,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AC15">
-        <v>0.03018440631881</v>
+        <v>0.02756007382227441</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3383,7 +3371,7 @@
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.01557024726012478</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3401,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AU15">
-        <v>0.03108180125665544</v>
+        <v>0.0323981554292233</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3425,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15">
-        <v>0.01561294837378955</v>
+        <v>0.01605553906958942</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3449,19 +3437,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="BM15">
-        <v>0.031383012648821</v>
+        <v>0.03373547603123781</v>
       </c>
       <c r="BN15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3473,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3481,7 +3469,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01476273152175092</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3499,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>0.02738582719984311</v>
+        <v>0.0002799648855504376</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3523,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T16">
-        <v>0.01546450942017438</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3547,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC16">
-        <v>0.03012004724350337</v>
+        <v>0.02756007382227441</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3571,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.01557024726012478</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3595,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AU16">
-        <v>0.03101538715140617</v>
+        <v>0.0323981554292233</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3619,55 +3607,55 @@
         <v>0</v>
       </c>
       <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD16">
+        <v>0.01605553906958942</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM16">
+        <v>0.03365152954913739</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16">
         <v>4</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD16">
-        <v>0.01560400112543781</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
-      <c r="BF16">
-        <v>1</v>
-      </c>
-      <c r="BG16">
-        <v>1</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM16">
-        <v>0.03134937597931529</v>
-      </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>1</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3675,7 +3663,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01476273152175092</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3693,19 +3681,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>0.02698907101361643</v>
+        <v>0.0002799648855504376</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3717,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T17">
-        <v>0.01545564723712557</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3744,10 +3732,10 @@
         <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC17">
-        <v>0.03005568816819674</v>
+        <v>0.02702613331476121</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3765,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.01556132448232528</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3792,16 +3780,16 @@
         <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AU17">
-        <v>0.03098391088295867</v>
+        <v>0.03185490793561146</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -3813,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17">
-        <v>0.01560400112543781</v>
+        <v>0.01605553906958942</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3840,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BM17">
-        <v>0.03134937597931529</v>
+        <v>0.03346917562464422</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3861,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3869,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01475427150368688</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K18">
-        <v>0.02481048684537519</v>
+        <v>0.0002799648855504376</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3917,7 +3905,7 @@
         <v>25</v>
       </c>
       <c r="T18">
-        <v>0.01545564723712557</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3938,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AC18">
-        <v>0.03002350863054343</v>
+        <v>0.02702613331476121</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3959,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.01556132448232528</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3986,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AU18">
-        <v>0.03098218009878154</v>
+        <v>0.03185490793561146</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -4007,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD18">
-        <v>0.01560400112543781</v>
+        <v>0.01605553906958942</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -4034,16 +4022,16 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="BM18">
-        <v>0.03129678453146763</v>
+        <v>0.03328682170015104</v>
       </c>
       <c r="BN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP18">
         <v>0</v>
@@ -4055,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4063,7 +4051,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01475427150368688</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4084,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>0.02481048684537519</v>
+        <v>0.0002780909864661495</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4105,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T19">
-        <v>0.01545564723712557</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4132,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AC19">
-        <v>0.02999132909289011</v>
+        <v>0.02684815314559015</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4153,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.01556132448232528</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AU19">
-        <v>0.03094897304615691</v>
+        <v>0.03167382543774085</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4201,55 +4189,55 @@
         <v>0</v>
       </c>
       <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD19">
+        <v>0.01605553906958942</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM19">
+        <v>0.03328682170015104</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>6</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD19">
-        <v>0.01560400112543781</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>1</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>1</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM19">
-        <v>0.03128210264030389</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4257,7 +4245,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01475427150368688</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4278,10 +4266,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>0.02475758602054497</v>
+        <v>0.0002780909864661495</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4299,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T20">
-        <v>0.01545564723712557</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4326,10 +4314,10 @@
         <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AC20">
-        <v>0.02999132909289011</v>
+        <v>0.02667017297641909</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4347,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.01556132448232528</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4374,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AU20">
-        <v>0.03094897304615691</v>
+        <v>0.03149274293987023</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4395,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD20">
-        <v>0.01559505387708606</v>
+        <v>0.01604633291186603</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4422,16 +4410,16 @@
         <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="BM20">
-        <v>0.03124846597079818</v>
+        <v>0.03300606033326511</v>
       </c>
       <c r="BN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4443,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4451,7 +4439,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01475427150368688</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4472,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>0.02470468519571474</v>
+        <v>0.0002774663534380535</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4499,7 +4487,7 @@
         <v>28</v>
       </c>
       <c r="T21">
-        <v>0.01544678505407676</v>
+        <v>0.01590814545411934</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4517,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AC21">
-        <v>0.02992697001758348</v>
+        <v>0.02649219280724803</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4541,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.01555240170452579</v>
+        <v>0.01601314864082558</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4565,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AU21">
-        <v>0.03088255894090765</v>
+        <v>0.03131166044199962</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4589,55 +4577,55 @@
         <v>0</v>
       </c>
       <c r="BA21">
+        <v>6</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD21">
+        <v>0.01604633291186603</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>2</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM21">
+        <v>0.03292211385116468</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS21">
         <v>8</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD21">
-        <v>0.01559505387708606</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>1</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>2</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM21">
-        <v>0.03121482930129248</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>1</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4645,7 +4633,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01474581148562284</v>
+        <v>0.01520998911171341</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4663,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K22">
-        <v>0.02467823478329963</v>
+        <v>0.0002768417204099575</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4693,7 +4681,7 @@
         <v>29</v>
       </c>
       <c r="T22">
-        <v>0.01544678505407676</v>
+        <v>0.01589902381108372</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4714,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AC22">
-        <v>0.02989479047993017</v>
+        <v>0.02649219280724803</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4735,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.01555240170452579</v>
+        <v>0.01600396678954071</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4762,10 +4750,10 @@
         <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AU22">
-        <v>0.03084935188828301</v>
+        <v>0.03131166044199962</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4783,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD22">
-        <v>0.01558610662873432</v>
+        <v>0.01603712675414264</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4810,10 +4798,10 @@
         <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BM22">
-        <v>0.03121055641411426</v>
+        <v>0.03290765289087234</v>
       </c>
       <c r="BN22">
         <v>3</v>
@@ -4831,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4839,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01474581148562284</v>
+        <v>0.01520126778768146</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4860,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>0.02465178437088451</v>
+        <v>0.0002762170873818616</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4887,7 +4875,7 @@
         <v>30</v>
       </c>
       <c r="T23">
-        <v>0.01543792287102795</v>
+        <v>0.01589902381108372</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4905,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AC23">
-        <v>0.02986261094227685</v>
+        <v>0.0261362324689059</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4929,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.01554347892672629</v>
+        <v>0.01600396678954071</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4953,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AU23">
-        <v>0.03081614483565838</v>
+        <v>0.03094949544625838</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4977,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD23">
-        <v>0.01558610662873432</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -5001,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="BM23">
-        <v>0.03114755596228107</v>
+        <v>0.03273975992667151</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5025,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5033,7 +5021,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0147373514675588</v>
+        <v>0.01520126778768146</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5051,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K24">
-        <v>0.02465178437088451</v>
+        <v>0.0002762170873818616</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5081,7 +5069,7 @@
         <v>31</v>
       </c>
       <c r="T24">
-        <v>0.01543792287102795</v>
+        <v>0.0158899021680481</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5102,10 +5090,10 @@
         <v>3</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AC24">
-        <v>0.02979825186697022</v>
+        <v>0.02595825229973484</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5123,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.01554347892672629</v>
+        <v>0.01599478493825583</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5150,10 +5138,10 @@
         <v>3</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AU24">
-        <v>0.03074973073040912</v>
+        <v>0.03076841294838777</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5171,13 +5159,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD24">
-        <v>0.01558610662873432</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5195,19 +5183,19 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="BM24">
-        <v>0.0310613278449277</v>
+        <v>0.03255740600217833</v>
       </c>
       <c r="BN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5219,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5227,7 +5215,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0147373514675588</v>
+        <v>0.01519254646364952</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5248,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0.0245988835460543</v>
+        <v>0.0002749678213256696</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5275,7 +5263,7 @@
         <v>32</v>
       </c>
       <c r="T25">
-        <v>0.01543792287102795</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5293,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AC25">
-        <v>0.02966953371635696</v>
+        <v>0.02578027213056377</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5317,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.01554347892672629</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5341,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AU25">
-        <v>0.03061690251991059</v>
+        <v>0.03058733045051715</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5365,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD25">
-        <v>0.01557715938038258</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5392,16 +5380,16 @@
         <v>4</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="BM25">
-        <v>0.03101300928425826</v>
+        <v>0.03254294504188598</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5413,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5421,7 +5409,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0147373514675588</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5439,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26">
-        <v>0.02457243313363918</v>
+        <v>0.0002743431882975736</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5469,7 +5457,7 @@
         <v>33</v>
       </c>
       <c r="T26">
-        <v>0.01542906068797914</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5490,10 +5478,10 @@
         <v>4</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AC26">
-        <v>0.02944427695278375</v>
+        <v>0.02542431179222164</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5511,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.01553455614892679</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5538,10 +5526,10 @@
         <v>4</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AU26">
-        <v>0.03038445315153817</v>
+        <v>0.03022516545477593</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5559,13 +5547,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD26">
-        <v>0.01557715938038258</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5586,10 +5574,10 @@
         <v>4</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="BM26">
-        <v>0.03077755259771834</v>
+        <v>0.03219269815319197</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5607,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5615,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01472889144949476</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5636,10 +5624,10 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K27">
-        <v>0.02454598272122407</v>
+        <v>0.0002737185552694776</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5663,7 +5651,7 @@
         <v>34</v>
       </c>
       <c r="T27">
-        <v>0.01542906068797914</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5684,10 +5672,10 @@
         <v>4</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AC27">
-        <v>0.02937991787747712</v>
+        <v>0.02293258942382675</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5705,13 +5693,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.01553455614892679</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5732,10 +5720,10 @@
         <v>4</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AU27">
-        <v>0.0303180390462889</v>
+        <v>0.02769001048458732</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5753,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BD27">
-        <v>0.01557715938038258</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5780,10 +5768,10 @@
         <v>4</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="BM27">
-        <v>0.03071027925870693</v>
+        <v>0.02963974321028749</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5801,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5809,7 +5797,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01472889144949476</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5830,10 +5818,10 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>0.02449308189639384</v>
+        <v>0.0002724692892132856</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5857,7 +5845,7 @@
         <v>35</v>
       </c>
       <c r="T28">
-        <v>0.01542906068797914</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5878,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AC28">
-        <v>0.0293477383398238</v>
+        <v>0.02097480756294504</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5899,13 +5887,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.01553455614892679</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5926,10 +5914,10 @@
         <v>4</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AU28">
-        <v>0.03028483199366427</v>
+        <v>0.02569810300801057</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5947,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD28">
-        <v>0.01557715938038258</v>
+        <v>0.01602792059641925</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5974,10 +5962,10 @@
         <v>4</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BM28">
-        <v>0.03067664258920123</v>
+        <v>0.02763385004086254</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5995,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6003,7 +5991,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01472889144949476</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6024,10 +6012,10 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K29">
-        <v>0.02438728024673339</v>
+        <v>0.0002637244268199417</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6045,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T29">
-        <v>0.01542906068797914</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6072,10 +6060,10 @@
         <v>4</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AC29">
-        <v>0.02931555880217048</v>
+        <v>0.02079682739377398</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6093,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.01553455614892679</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6120,10 +6108,10 @@
         <v>4</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AU29">
-        <v>0.03025162494103964</v>
+        <v>0.02551702051013995</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6141,13 +6129,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD29">
-        <v>0.01556821213203084</v>
+        <v>0.01601871443869586</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6168,10 +6156,10 @@
         <v>5</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BM29">
-        <v>0.03064300591969553</v>
+        <v>0.02745149611636936</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6189,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6197,7 +6185,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01472889144949476</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6218,10 +6206,10 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K30">
-        <v>0.02420212735982761</v>
+        <v>0.0002568534635108857</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6239,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T30">
-        <v>0.01542019850493033</v>
+        <v>0.01588078052501248</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6263,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AC30">
-        <v>0.02909323718950174</v>
+        <v>0.01495033421036939</v>
       </c>
       <c r="AD30">
         <v>2</v>
@@ -6287,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL30">
-        <v>0.01552563337112729</v>
+        <v>0.01598560308697095</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6311,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AU30">
-        <v>0.03001917557266722</v>
+        <v>0.01591964812299738</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6335,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD30">
-        <v>0.0155592648836791</v>
+        <v>0.01600950828097247</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6362,10 +6350,10 @@
         <v>6</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="BM30">
-        <v>0.03040754923315561</v>
+        <v>0.01778673811823096</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6383,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6391,7 +6379,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01472043143143072</v>
+        <v>0.01518382513961757</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6409,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K31">
-        <v>0.02414922653499739</v>
+        <v>0.0002562288304827897</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6433,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T31">
-        <v>0.01541133632188152</v>
+        <v>0.01587165888197686</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6457,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AC31">
-        <v>0.02909030203859728</v>
+        <v>0.01136387842770758</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6481,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL31">
-        <v>0.01551671059332779</v>
+        <v>0.01597642123568607</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6505,13 +6493,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AU31">
-        <v>0.02922393709385318</v>
+        <v>0.01521092982113162</v>
       </c>
       <c r="AV31">
         <v>2</v>
@@ -6529,13 +6517,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BD31">
-        <v>0.0155592648836791</v>
+        <v>0.01600950828097247</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6556,10 +6544,10 @@
         <v>6</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BM31">
-        <v>0.02927858436112544</v>
+        <v>0.0153177296574269</v>
       </c>
       <c r="BN31">
         <v>2</v>
@@ -6577,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6585,7 +6573,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01471197141336668</v>
+        <v>0.01517510381558563</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6603,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K32">
-        <v>0.02412277612258228</v>
+        <v>0.000223123279993702</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6627,13 +6615,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T32">
-        <v>0.01541133632188152</v>
+        <v>0.01586253723894124</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6654,16 +6642,16 @@
         <v>6</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="AC32">
-        <v>0.02887385072773746</v>
+        <v>0.002108909630812251</v>
       </c>
       <c r="AD32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -6675,13 +6663,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL32">
-        <v>0.01551671059332779</v>
+        <v>0.0159672393844012</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6702,16 +6690,16 @@
         <v>6</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AU32">
-        <v>0.0279952761467418</v>
+        <v>0.00650335823372543</v>
       </c>
       <c r="AV32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -6723,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BD32">
-        <v>0.0155592648836791</v>
+        <v>0.01600950828097247</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6750,16 +6738,16 @@
         <v>6</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="BM32">
-        <v>0.02803402758941443</v>
+        <v>0.008304334044585743</v>
       </c>
       <c r="BN32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP32">
         <v>0</v>
@@ -6771,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6779,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01471197141336668</v>
+        <v>0.01516638249155368</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6800,10 +6788,10 @@
         <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>0.02409632571016716</v>
+        <v>0.0001906423625327103</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6821,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T33">
-        <v>0.01541133632188152</v>
+        <v>0.01586253723894124</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6848,10 +6836,10 @@
         <v>6</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AC33">
-        <v>0.02790259429632906</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <v>2</v>
@@ -6869,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.01551671059332779</v>
+        <v>0.0159672393844012</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6896,10 +6884,10 @@
         <v>6</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU33">
-        <v>0.02749717035737232</v>
+        <v>0</v>
       </c>
       <c r="AV33">
         <v>2</v>
@@ -6917,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD33">
-        <v>0.01555031763532736</v>
+        <v>0.01600030212324909</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6944,10 +6932,10 @@
         <v>7</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BM33">
-        <v>0.02752947754682888</v>
+        <v>0</v>
       </c>
       <c r="BN33">
         <v>2</v>
@@ -6965,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>142</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6973,7 +6961,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01471197141336668</v>
+        <v>0.01516638249155368</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6993,35 +6981,11 @@
       <c r="H34">
         <v>6</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34">
-        <v>0.02391117282326138</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>34</v>
-      </c>
       <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T34">
-        <v>0.0154024741388327</v>
+        <v>0.01586253723894124</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7039,37 +7003,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>7</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC34">
-        <v>0.02741990123152933</v>
-      </c>
-      <c r="AD34">
-        <v>2</v>
-      </c>
-      <c r="AE34">
-        <v>2</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.01550778781552829</v>
+        <v>0.0159672393844012</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7087,37 +7027,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>7</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU34">
-        <v>0.02740101076785268</v>
-      </c>
-      <c r="AV34">
-        <v>4</v>
-      </c>
-      <c r="AW34">
-        <v>4</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD34">
-        <v>0.01554137038697562</v>
+        <v>0.0159910959655257</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7136,30 +7052,6 @@
       </c>
       <c r="BJ34">
         <v>8</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM34">
-        <v>0.02678519793052519</v>
-      </c>
-      <c r="BN34">
-        <v>4</v>
-      </c>
-      <c r="BO34">
-        <v>4</v>
-      </c>
-      <c r="BP34">
-        <v>0</v>
-      </c>
-      <c r="BQ34">
-        <v>1</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7167,7 +7059,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01470351139530264</v>
+        <v>0.01516638249155368</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7185,37 +7077,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>938</v>
+        <v>6</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T35">
-        <v>0.01539361195578389</v>
+        <v>0.01585341559590563</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7233,37 +7101,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>8</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>938</v>
+        <v>7</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL35">
-        <v>0.01549886503772879</v>
+        <v>0.01595805753311632</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7281,37 +7125,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>8</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>1</v>
-      </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>938</v>
+        <v>7</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BD35">
-        <v>0.01554137038697562</v>
+        <v>0.01598188980780231</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7329,31 +7149,7 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>8</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
-      </c>
-      <c r="BN35">
-        <v>1</v>
-      </c>
-      <c r="BO35">
-        <v>1</v>
-      </c>
-      <c r="BP35">
-        <v>0</v>
-      </c>
-      <c r="BQ35">
-        <v>1</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>938</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7361,7 +7157,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0146950513772386</v>
+        <v>0.01515766116752173</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7379,13 +7175,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T36">
-        <v>0.01539361195578389</v>
+        <v>0.01584429395287001</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7409,7 +7205,7 @@
         <v>43</v>
       </c>
       <c r="AL36">
-        <v>0.01549886503772879</v>
+        <v>0.01594887568183144</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7430,10 +7226,10 @@
         <v>8</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BD36">
-        <v>0.01553242313862387</v>
+        <v>0.01598188980780231</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7459,7 +7255,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0146950513772386</v>
+        <v>0.01514893984348979</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7483,7 +7279,7 @@
         <v>44</v>
       </c>
       <c r="T37">
-        <v>0.01538474977273508</v>
+        <v>0.01583517230983439</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7507,7 +7303,7 @@
         <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.01548994225992929</v>
+        <v>0.01593969383054656</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7528,10 +7324,10 @@
         <v>9</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD37">
-        <v>0.01552347589027213</v>
+        <v>0.01597268365007892</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7557,7 +7353,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01468659135917456</v>
+        <v>0.01514021851945784</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7581,7 +7377,7 @@
         <v>45</v>
       </c>
       <c r="T38">
-        <v>0.01537588758968627</v>
+        <v>0.01583517230983439</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7599,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AL38">
-        <v>0.0154810194821298</v>
+        <v>0.01593969383054656</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7623,13 +7419,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BD38">
-        <v>0.01552347589027213</v>
+        <v>0.01597268365007892</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7655,7 +7451,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01467813134111052</v>
+        <v>0.01514021851945784</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7673,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T39">
-        <v>0.01537588758968627</v>
+        <v>0.01582605066679877</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -7703,7 +7499,7 @@
         <v>46</v>
       </c>
       <c r="AL39">
-        <v>0.0154810194821298</v>
+        <v>0.01593051197926169</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -7724,10 +7520,10 @@
         <v>10</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BD39">
-        <v>0.01551452864192039</v>
+        <v>0.01596347749235553</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -7753,7 +7549,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01467813134111052</v>
+        <v>0.01513149719542589</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7777,7 +7573,7 @@
         <v>47</v>
       </c>
       <c r="T40">
-        <v>0.01536702540663746</v>
+        <v>0.01582605066679877</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -7795,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AL40">
-        <v>0.0154720967043303</v>
+        <v>0.01593051197926169</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -7819,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD40">
-        <v>0.01548768689686516</v>
+        <v>0.01593585901918537</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -7851,7 +7647,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01466967132304647</v>
+        <v>0.01513149719542589</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7869,13 +7665,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T41">
-        <v>0.01534043885749103</v>
+        <v>0.01581692902376315</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -7893,13 +7689,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AL41">
-        <v>0.0154453283709318</v>
+        <v>0.01592133012797681</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -7917,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BD41">
-        <v>0.01547873964851342</v>
+        <v>0.01591744670373859</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -7941,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:71">
@@ -7949,7 +7745,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.01464429126885435</v>
+        <v>0.01512277587139395</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7967,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="T42">
-        <v>0.01533157667444222</v>
+        <v>0.01578956409465629</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -7991,13 +7787,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AL42">
-        <v>0.01543640559313231</v>
+        <v>0.01589378457412218</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8015,13 +7811,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BD42">
-        <v>0.01546084515180994</v>
+        <v>0.0159082405460152</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8047,7 +7843,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01463583125079031</v>
+        <v>0.01509661189929811</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8065,13 +7861,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="T43">
-        <v>0.0153138523083446</v>
+        <v>0.01577132080858505</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8089,13 +7885,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AL43">
-        <v>0.01541856003753331</v>
+        <v>0.01587542087155243</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8113,31 +7909,31 @@
         <v>0</v>
       </c>
       <c r="AR43">
+        <v>16</v>
+      </c>
+      <c r="BC43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD43">
+        <v>0.0159082405460152</v>
+      </c>
+      <c r="BE43">
+        <v>1</v>
+      </c>
+      <c r="BF43">
+        <v>1</v>
+      </c>
+      <c r="BG43">
+        <v>1</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
         <v>17</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD43">
-        <v>0.01545189790345819</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>1</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:71">
@@ -8145,7 +7941,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01461891121466223</v>
+        <v>0.01507916925123422</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8163,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T44">
-        <v>0.01530499012529579</v>
+        <v>0.01576219916554944</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -8187,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AL44">
-        <v>0.01540963725973381</v>
+        <v>0.01586623902026755</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -8211,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="AR44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC44" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="BD44">
-        <v>0.01545189790345819</v>
+        <v>0.01590662778845782</v>
       </c>
       <c r="BE44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG44">
         <v>1</v>
@@ -8235,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:71">
@@ -8243,7 +8039,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.01461045119659819</v>
+        <v>0.01507044792720227</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8261,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T45">
-        <v>0.01530499012529579</v>
+        <v>0.01576219916554944</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -8285,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AL45">
-        <v>0.01540963725973381</v>
+        <v>0.01586623902026755</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -8309,13 +8105,13 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BD45">
-        <v>0.01543400340675471</v>
+        <v>0.01588062207284504</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -8341,7 +8137,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01461045119659819</v>
+        <v>0.01507044792720227</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8359,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="T46">
-        <v>0.01528726575919817</v>
+        <v>0.01573483423644258</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -8389,7 +8185,7 @@
         <v>53</v>
       </c>
       <c r="AL46">
-        <v>0.01539179170413481</v>
+        <v>0.01583869346641292</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -8413,7 +8209,7 @@
         <v>54</v>
       </c>
       <c r="BD46">
-        <v>0.01543400340675471</v>
+        <v>0.01588062207284504</v>
       </c>
       <c r="BE46">
         <v>1</v>
@@ -8439,7 +8235,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.01459353116047011</v>
+        <v>0.01504428395510644</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -8463,7 +8259,7 @@
         <v>54</v>
       </c>
       <c r="T47">
-        <v>0.01528726575919817</v>
+        <v>0.01573483423644258</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -8487,7 +8283,7 @@
         <v>54</v>
       </c>
       <c r="AL47">
-        <v>0.01539179170413481</v>
+        <v>0.01583869346641292</v>
       </c>
       <c r="AM47">
         <v>1</v>
@@ -8511,7 +8307,7 @@
         <v>55</v>
       </c>
       <c r="BD47">
-        <v>0.01541610891005123</v>
+        <v>0.01587141591512165</v>
       </c>
       <c r="BE47">
         <v>1</v>
@@ -8529,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:71">
@@ -8537,7 +8333,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01459353116047011</v>
+        <v>0.01504428395510644</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -8561,7 +8357,7 @@
         <v>55</v>
       </c>
       <c r="T48">
-        <v>0.01526954139310055</v>
+        <v>0.01572571259340696</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -8579,13 +8375,13 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AL48">
-        <v>0.01537394614853582</v>
+        <v>0.01582951161512804</v>
       </c>
       <c r="AM48">
         <v>1</v>
@@ -8603,19 +8399,19 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="BD48">
-        <v>0.01541610891005123</v>
+        <v>0.015864830488429</v>
       </c>
       <c r="BE48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BF48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BG48">
         <v>1</v>
@@ -8627,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="BJ48">
-        <v>22</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:62">
@@ -8635,7 +8431,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.01457661112434203</v>
+        <v>0.01503556263107449</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -8653,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="T49">
-        <v>0.01526954139310055</v>
+        <v>0.01568922602126448</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -8677,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AL49">
-        <v>0.01537394614853582</v>
+        <v>0.01579278420998853</v>
       </c>
       <c r="AM49">
         <v>1</v>
@@ -8701,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BC49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD49">
-        <v>0.01537137266829252</v>
+        <v>0.01583459128422809</v>
       </c>
       <c r="BE49">
         <v>1</v>
@@ -8725,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:62">
@@ -8733,7 +8529,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01457661112434203</v>
+        <v>0.01500067733494671</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8751,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T50">
-        <v>0.01522523047785649</v>
+        <v>0.01568010437822887</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -8775,13 +8571,13 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AL50">
-        <v>0.01532933225953832</v>
+        <v>0.01578360235870365</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -8799,13 +8595,13 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BD50">
-        <v>0.01537137266829252</v>
+        <v>0.0158253851265047</v>
       </c>
       <c r="BE50">
         <v>1</v>
@@ -8823,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:62">
@@ -8831,7 +8627,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.01453431103402182</v>
+        <v>0.01499195601091476</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -8849,13 +8645,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T51">
-        <v>0.01522523047785649</v>
+        <v>0.01567098273519325</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -8879,7 +8675,7 @@
         <v>58</v>
       </c>
       <c r="AL51">
-        <v>0.01532933225953832</v>
+        <v>0.01577442050741878</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -8900,16 +8696,16 @@
         <v>27</v>
       </c>
       <c r="BC51" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="BD51">
-        <v>0.01520854556567803</v>
+        <v>0.01581617896878132</v>
       </c>
       <c r="BE51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BF51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BG51">
         <v>1</v>
@@ -8921,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:62">
@@ -8929,7 +8725,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.01453431103402182</v>
+        <v>0.01498323468688282</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -8950,16 +8746,16 @@
         <v>27</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="T52">
-        <v>0.01521526448927872</v>
+        <v>0.01567098273519325</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>1</v>
@@ -8971,19 +8767,19 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="AL52">
-        <v>0.01510562775583874</v>
+        <v>0.01577442050741878</v>
       </c>
       <c r="AM52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>1</v>
@@ -8995,19 +8791,19 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="BC52" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="BD52">
-        <v>0.01506135211507807</v>
+        <v>0.01581617896878132</v>
       </c>
       <c r="BE52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG52">
         <v>1</v>
@@ -9019,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="BJ52">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:62">
@@ -9027,7 +8823,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.0142382104017804</v>
+        <v>0.01498323468688282</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9045,19 +8841,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="T53">
-        <v>0.01491505407114812</v>
+        <v>0.01566106211612531</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>1</v>
@@ -9069,13 +8865,13 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL53">
-        <v>0.01501703503655588</v>
+        <v>0.01573769310227927</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -9093,13 +8889,13 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="BC53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD53">
-        <v>0.01505821897598155</v>
+        <v>0.01577935433788776</v>
       </c>
       <c r="BE53">
         <v>1</v>
@@ -9117,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:62">
@@ -9125,7 +8921,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01417053025726808</v>
+        <v>0.01494834939075503</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9143,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T54">
-        <v>0.01484415660675764</v>
+        <v>0.01563449616305077</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -9167,19 +8963,19 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AL54">
-        <v>0.01494565281415989</v>
+        <v>0.01554441465401252</v>
       </c>
       <c r="AM54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO54">
         <v>1</v>
@@ -9191,19 +8987,19 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="BC54" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="BD54">
-        <v>0.01498664098916762</v>
+        <v>0.0154973233600406</v>
       </c>
       <c r="BE54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG54">
         <v>1</v>
@@ -9215,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:62">
@@ -9223,7 +9019,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.01409439009469171</v>
+        <v>0.01467798834576472</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9241,13 +9037,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T55">
-        <v>0.01476439695931835</v>
+        <v>0.01535172522894659</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -9265,13 +9061,13 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AL55">
-        <v>0.01486534781396441</v>
+        <v>0.01545305571244808</v>
       </c>
       <c r="AM55">
         <v>1</v>
@@ -9289,13 +9085,13 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="BC55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BD55">
-        <v>0.01490611575400194</v>
+        <v>0.01549396344846272</v>
       </c>
       <c r="BE55">
         <v>1</v>
@@ -9313,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:62">
@@ -9321,7 +9117,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.01408593007662767</v>
+        <v>0.01460821775350915</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9339,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T56">
-        <v>0.01475553477626954</v>
+        <v>0.01527875208466164</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -9363,13 +9159,13 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AL56">
-        <v>0.01485642503616491</v>
+        <v>0.01537960090216906</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -9387,13 +9183,13 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BD56">
-        <v>0.0148971685056502</v>
+        <v>0.01542031418667561</v>
       </c>
       <c r="BE56">
         <v>1</v>
@@ -9411,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="BJ56">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:62">
@@ -9419,7 +9215,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.01322300823409552</v>
+        <v>0.01445995524496607</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -9437,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="T57">
-        <v>0.01385159210529086</v>
+        <v>0.01512368415305611</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -9461,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="AK57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AL57">
-        <v>0.01394630170061606</v>
+        <v>0.01522350943032615</v>
       </c>
       <c r="AM57">
         <v>1</v>
@@ -9485,13 +9281,13 @@
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="BC57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BD57">
-        <v>0.01398454917377253</v>
+        <v>0.01526380950537801</v>
       </c>
       <c r="BE57">
         <v>1</v>
@@ -9509,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="BJ57">
-        <v>182</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:62">
@@ -9517,7 +9313,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01312994803539108</v>
+        <v>0.01353549489757982</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9541,7 +9337,7 @@
         <v>64</v>
       </c>
       <c r="T58">
-        <v>0.01375410809175395</v>
+        <v>0.01415678999128051</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -9565,7 +9361,7 @@
         <v>64</v>
       </c>
       <c r="AL58">
-        <v>0.01384815114482158</v>
+        <v>0.01425023319412919</v>
       </c>
       <c r="AM58">
         <v>1</v>
@@ -9589,7 +9385,7 @@
         <v>64</v>
       </c>
       <c r="BD58">
-        <v>0.01388612944190337</v>
+        <v>0.01428795678669884</v>
       </c>
       <c r="BE58">
         <v>1</v>
@@ -9615,7 +9411,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.01309610796313491</v>
+        <v>0.01350060960145204</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -9639,7 +9435,7 @@
         <v>65</v>
       </c>
       <c r="T59">
-        <v>0.0137186593595587</v>
+        <v>0.01412030341913804</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -9663,7 +9459,7 @@
         <v>65</v>
       </c>
       <c r="AL59">
-        <v>0.01381246003362359</v>
+        <v>0.01421350578898968</v>
       </c>
       <c r="AM59">
         <v>1</v>
@@ -9687,7 +9483,7 @@
         <v>65</v>
       </c>
       <c r="BD59">
-        <v>0.0138503404484964</v>
+        <v>0.01425113215580529</v>
       </c>
       <c r="BE59">
         <v>1</v>
@@ -9713,7 +9509,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.01302842781862259</v>
+        <v>0.01329129782468534</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9731,13 +9527,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="T60">
-        <v>0.01364776189516822</v>
+        <v>0.01390138398628318</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -9755,13 +9551,13 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="AK60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AL60">
-        <v>0.0137410778112276</v>
+        <v>0.01399314135815263</v>
       </c>
       <c r="AM60">
         <v>1</v>
@@ -9779,13 +9575,13 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="BC60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BD60">
-        <v>0.01377876246168247</v>
+        <v>0.01403018437044396</v>
       </c>
       <c r="BE60">
         <v>1</v>
@@ -9803,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BJ60">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:62">
@@ -9811,7 +9607,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01289306752959794</v>
+        <v>0.01144237712991284</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9829,13 +9625,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>221</v>
+        <v>433</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="T61">
-        <v>0.01350596696638725</v>
+        <v>0.01196759566273198</v>
       </c>
       <c r="U61">
         <v>1</v>
@@ -9853,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>221</v>
+        <v>433</v>
       </c>
       <c r="AK61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AL61">
-        <v>0.01359831336643563</v>
+        <v>0.0120465888857587</v>
       </c>
       <c r="AM61">
         <v>1</v>
@@ -9877,13 +9673,13 @@
         <v>0</v>
       </c>
       <c r="AR61">
-        <v>221</v>
+        <v>433</v>
       </c>
       <c r="BC61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BD61">
-        <v>0.0136356064880546</v>
+        <v>0.01207847893308561</v>
       </c>
       <c r="BE61">
         <v>1</v>
@@ -9901,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="BJ61">
-        <v>221</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:62">
@@ -9909,7 +9705,7 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.01245314659026783</v>
+        <v>0.01144237712991284</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9927,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="T62">
-        <v>0.0130451334478491</v>
+        <v>0.01196759566273198</v>
       </c>
       <c r="U62">
         <v>1</v>
@@ -9951,13 +9747,13 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="AK62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AL62">
-        <v>0.01313432892086171</v>
+        <v>0.0120465888857587</v>
       </c>
       <c r="AM62">
         <v>1</v>
@@ -9975,13 +9771,13 @@
         <v>0</v>
       </c>
       <c r="AR62">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="BC62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BD62">
-        <v>0.01317034957376402</v>
+        <v>0.01207847893308561</v>
       </c>
       <c r="BE62">
         <v>1</v>
@@ -9999,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="BJ62">
-        <v>273</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:62">
@@ -10007,7 +9803,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01109954370002132</v>
+        <v>0.01135516388959338</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -10025,13 +9821,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="T63">
-        <v>0.01162718416003942</v>
+        <v>0.01187637923237579</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -10049,13 +9845,13 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="AK63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AL63">
-        <v>0.01170668447294196</v>
+        <v>0.01195477037290993</v>
       </c>
       <c r="AM63">
         <v>1</v>
@@ -10073,13 +9869,13 @@
         <v>0</v>
       </c>
       <c r="AR63">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="BC63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BD63">
-        <v>0.01173878983748532</v>
+        <v>0.01198641735585173</v>
       </c>
       <c r="BE63">
         <v>1</v>
@@ -10097,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="BJ63">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:62">
@@ -10105,7 +9901,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.01109954370002132</v>
+        <v>0.01131155726943365</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -10123,13 +9919,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="T64">
-        <v>0.01162718416003942</v>
+        <v>0.0118307710171977</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -10147,13 +9943,13 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AK64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AL64">
-        <v>0.01170668447294196</v>
+        <v>0.01190886111648554</v>
       </c>
       <c r="AM64">
         <v>1</v>
@@ -10171,13 +9967,13 @@
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="BC64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BD64">
-        <v>0.01173878983748532</v>
+        <v>0.01194038656723479</v>
       </c>
       <c r="BE64">
         <v>1</v>
@@ -10195,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="BJ64">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:62">
@@ -10203,7 +9999,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01101494351938092</v>
+        <v>0.007953847517134533</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -10221,13 +10017,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>443</v>
+        <v>833</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="T65">
-        <v>0.01153856232955131</v>
+        <v>0.008318938448484425</v>
       </c>
       <c r="U65">
         <v>1</v>
@@ -10245,13 +10041,13 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>443</v>
+        <v>833</v>
       </c>
       <c r="AK65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL65">
-        <v>0.01161745669494697</v>
+        <v>0.008373848371807872</v>
       </c>
       <c r="AM65">
         <v>1</v>
@@ -10269,13 +10065,13 @@
         <v>0</v>
       </c>
       <c r="AR65">
-        <v>443</v>
+        <v>833</v>
       </c>
       <c r="BC65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BD65">
-        <v>0.0116493173539679</v>
+        <v>0.008396015843730245</v>
       </c>
       <c r="BE65">
         <v>1</v>
@@ -10293,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="BJ65">
-        <v>443</v>
+        <v>833</v>
       </c>
     </row>
     <row r="66" spans="1:62">
@@ -10301,7 +10097,7 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01097264342906071</v>
+        <v>0.007604994555856704</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -10319,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>448</v>
+        <v>873</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="T66">
-        <v>0.01149425141430726</v>
+        <v>0.007954072727059671</v>
       </c>
       <c r="U66">
         <v>1</v>
@@ -10343,13 +10139,13 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>448</v>
+        <v>873</v>
       </c>
       <c r="AK66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AL66">
-        <v>0.01157284280594948</v>
+        <v>0.008006574320412791</v>
       </c>
       <c r="AM66">
         <v>1</v>
@@ -10367,13 +10163,13 @@
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>448</v>
+        <v>873</v>
       </c>
       <c r="BC66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="BD66">
-        <v>0.01160458111220919</v>
+        <v>0.008027769534794709</v>
       </c>
       <c r="BE66">
         <v>1</v>
@@ -10391,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BJ66">
-        <v>448</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:62">
@@ -10399,7 +10195,7 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01018586174910493</v>
+        <v>0.006916009957332991</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -10417,13 +10213,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>541</v>
+        <v>952</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="T67">
-        <v>0.01067006839076788</v>
+        <v>0.007233462927245777</v>
       </c>
       <c r="U67">
         <v>1</v>
@@ -10441,13 +10237,13 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>541</v>
+        <v>952</v>
       </c>
       <c r="AK67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AL67">
-        <v>0.01074302447059612</v>
+        <v>0.007281208068907506</v>
       </c>
       <c r="AM67">
         <v>1</v>
@@ -10465,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>541</v>
+        <v>952</v>
       </c>
       <c r="BC67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="BD67">
-        <v>0.0107724870154972</v>
+        <v>0.007300483074647024</v>
       </c>
       <c r="BE67">
         <v>1</v>
@@ -10489,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="BJ67">
-        <v>541</v>
+        <v>952</v>
       </c>
     </row>
     <row r="68" spans="1:62">
@@ -10497,7 +10293,7 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.007377135751843441</v>
+        <v>0.00543338487190221</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -10515,13 +10311,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>873</v>
+        <v>1122</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="T68">
-        <v>0.007727823618562783</v>
+        <v>0.005682783611190567</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -10539,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>873</v>
+        <v>1122</v>
       </c>
       <c r="AK68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AL68">
-        <v>0.007780662241162643</v>
+        <v>0.005720293350478405</v>
       </c>
       <c r="AM68">
         <v>1</v>
@@ -10563,13 +10359,13 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>873</v>
+        <v>1122</v>
       </c>
       <c r="BC68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BD68">
-        <v>0.007802000562718904</v>
+        <v>0.00573543626167099</v>
       </c>
       <c r="BE68">
         <v>1</v>
@@ -10587,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="BJ68">
-        <v>873</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="69" spans="1:62">
@@ -10595,7 +10391,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.00670879432478423</v>
+        <v>0.00158728097381413</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -10613,13 +10409,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>952</v>
+        <v>1563</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="T69">
-        <v>0.007027711157706751</v>
+        <v>0.001660139032482638</v>
       </c>
       <c r="U69">
         <v>1</v>
@@ -10637,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>952</v>
+        <v>1563</v>
       </c>
       <c r="AK69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AL69">
-        <v>0.007075762795002265</v>
+        <v>0.001671096933847624</v>
       </c>
       <c r="AM69">
         <v>1</v>
@@ -10661,13 +10457,13 @@
         <v>0</v>
       </c>
       <c r="AR69">
-        <v>952</v>
+        <v>1563</v>
       </c>
       <c r="BC69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BD69">
-        <v>0.007095167942931298</v>
+        <v>0.001675520705656693</v>
       </c>
       <c r="BE69">
         <v>1</v>
@@ -10685,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="BJ69">
-        <v>952</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="70" spans="1:62">
@@ -10693,7 +10489,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.005270591253897321</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -10711,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1122</v>
+        <v>1745</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="T70">
-        <v>0.005521140039408962</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>1</v>
@@ -10735,13 +10531,13 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>1122</v>
+        <v>1745</v>
       </c>
       <c r="AK70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AL70">
-        <v>0.005558890569087531</v>
+        <v>0</v>
       </c>
       <c r="AM70">
         <v>1</v>
@@ -10759,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>1122</v>
+        <v>1745</v>
       </c>
       <c r="BC70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="BD70">
-        <v>0.005574135723135181</v>
+        <v>0</v>
       </c>
       <c r="BE70">
         <v>1</v>
@@ -10783,202 +10579,6 @@
         <v>0</v>
       </c>
       <c r="BJ70">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:62">
-      <c r="A71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71">
-        <v>0.0015397232876554</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1563</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T71">
-        <v>0.001612917314883519</v>
-      </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>1563</v>
-      </c>
-      <c r="AK71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL71">
-        <v>0.001623945559508719</v>
-      </c>
-      <c r="AM71">
-        <v>1</v>
-      </c>
-      <c r="AN71">
-        <v>1</v>
-      </c>
-      <c r="AO71">
-        <v>1</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR71">
-        <v>1563</v>
-      </c>
-      <c r="BC71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD71">
-        <v>0.001628399200017021</v>
-      </c>
-      <c r="BE71">
-        <v>1</v>
-      </c>
-      <c r="BF71">
-        <v>1</v>
-      </c>
-      <c r="BG71">
-        <v>1</v>
-      </c>
-      <c r="BH71">
-        <v>0</v>
-      </c>
-      <c r="BI71" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ71">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="72" spans="1:62">
-      <c r="A72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1745</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>1</v>
-      </c>
-      <c r="V72">
-        <v>1</v>
-      </c>
-      <c r="W72">
-        <v>1</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>1745</v>
-      </c>
-      <c r="AK72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>1</v>
-      </c>
-      <c r="AN72">
-        <v>1</v>
-      </c>
-      <c r="AO72">
-        <v>1</v>
-      </c>
-      <c r="AP72">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR72">
-        <v>1745</v>
-      </c>
-      <c r="BC72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD72">
-        <v>0</v>
-      </c>
-      <c r="BE72">
-        <v>1</v>
-      </c>
-      <c r="BF72">
-        <v>1</v>
-      </c>
-      <c r="BG72">
-        <v>1</v>
-      </c>
-      <c r="BH72">
-        <v>0</v>
-      </c>
-      <c r="BI72" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ72">
         <v>1745</v>
       </c>
     </row>
